--- a/xlsx/政教合一_intext.xlsx
+++ b/xlsx/政教合一_intext.xlsx
@@ -29,13 +29,13 @@
     <t>政治</t>
   </si>
   <si>
-    <t>政策_政策_政治學_政教合一</t>
+    <t>政策_政策_政治学_政教合一</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E8%A2%96</t>
   </si>
   <si>
-    <t>領袖</t>
+    <t>领袖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
@@ -47,25 +47,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%AB%94</t>
   </si>
   <si>
-    <t>政體</t>
+    <t>政体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>歷史</t>
+    <t>历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99</t>
   </si>
   <si>
-    <t>伊斯蘭教</t>
+    <t>伊斯兰教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿拉伯帝國</t>
+    <t>阿拉伯帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6%E5%B8%9D%E5%9B%BD</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%9C%E5%8D%A0%E5%BA%AD%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>拜占庭帝國</t>
+    <t>拜占庭帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%E5%85%AB%E4%B8%96</t>
@@ -101,13 +101,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%AD%A3%E6%95%99</t>
   </si>
   <si>
-    <t>東正教</t>
+    <t>东正教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>俄羅斯帝國</t>
+    <t>俄罗斯帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%9A%87</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%97%A5%E6%9C%AC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>大日本帝國</t>
+    <t>大日本帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -203,13 +203,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%AC%8A%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>神權政治</t>
+    <t>神权政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E6%95%99%E5%AE%97</t>
   </si>
   <si>
-    <t>羅馬教宗</t>
+    <t>罗马教宗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E6%B5%8E%E5%90%84_(%E6%95%99%E5%AE%97)</t>
@@ -221,13 +221,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E5%BA%A7%E6%A2%B5%E8%92%82%E5%B2%A1%E5%9F%8E%E5%9C%8B%E5%A7%94%E5%93%A1%E6%9C%83%E4%B8%BB%E5%B8%AD</t>
   </si>
   <si>
-    <t>宗座梵蒂岡城國委員會主席</t>
+    <t>宗座梵蒂冈城国委员会主席</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%B1%E5%A1%9E%E4%BD%A9%C2%B7%E8%B2%9D%E5%BE%B7%E7%BE%85</t>
   </si>
   <si>
-    <t>朱塞佩·貝德羅</t>
+    <t>朱塞佩·贝德罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%AE%97</t>
@@ -239,19 +239,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E5%B0%88%E5%88%B6</t>
   </si>
   <si>
-    <t>君主專制</t>
+    <t>君主专制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%89%B9%E9%98%BF%E6%8B%89%E4%BC%AF%E5%9C%8B%E7%8E%8B</t>
   </si>
   <si>
-    <t>沙特阿拉伯國王</t>
+    <t>沙特阿拉伯国王</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%8B%92%E6%9B%BC%C2%B7%E6%9C%AC%C2%B7%E9%98%BF%E5%8D%9C%E6%9D%9C%E5%8B%92-%E9%98%BF%E9%BD%90%E5%85%B9%C2%B7%E9%98%BF%E5%8B%92%E6%B2%99%E7%89%B9</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E8%81%96%E5%9C%B0%E7%9B%A3%E8%AD%B7%E4%BA%BA</t>
   </si>
   <si>
-    <t>兩聖地監護人</t>
+    <t>两圣地监护人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%95%99</t>
   </si>
   <si>
-    <t>國教</t>
+    <t>国教</t>
   </si>
 </sst>
 </file>

--- a/xlsx/政教合一_intext.xlsx
+++ b/xlsx/政教合一_intext.xlsx
@@ -29,7 +29,7 @@
     <t>政治</t>
   </si>
   <si>
-    <t>政策_政策_政治學_政教合一</t>
+    <t>体育运动_体育运动_伊朗_政教合一</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E8%A2%96</t>
